--- a/Output/重点调研单位.xlsx
+++ b/Output/重点调研单位.xlsx
@@ -385,7 +385,7 @@
         <v>已提交</v>
       </c>
       <c r="B1">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -401,7 +401,7 @@
         <v>未暂存</v>
       </c>
       <c r="B3">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -898,7 +898,7 @@
         <v>123456</v>
       </c>
       <c r="F28" t="str">
-        <v>已暂存</v>
+        <v>已提交</v>
       </c>
     </row>
     <row r="29">
@@ -1118,7 +1118,7 @@
         <v>11232784</v>
       </c>
       <c r="F39" t="str">
-        <v>未暂存</v>
+        <v>已暂存</v>
       </c>
     </row>
     <row r="40">
@@ -1278,7 +1278,7 @@
         <v>39707642</v>
       </c>
       <c r="F47" t="str">
-        <v>未暂存</v>
+        <v>已暂存</v>
       </c>
     </row>
     <row r="48">
@@ -2078,7 +2078,7 @@
         <v>123456</v>
       </c>
       <c r="F87" t="str">
-        <v>未暂存</v>
+        <v>已提交</v>
       </c>
     </row>
     <row r="88">
@@ -2612,7 +2612,7 @@
         <v>123456</v>
       </c>
       <c r="F114" t="str">
-        <v>未暂存</v>
+        <v>已提交</v>
       </c>
     </row>
     <row r="115">
@@ -2632,7 +2632,7 @@
         <v>123456</v>
       </c>
       <c r="F115" t="str">
-        <v>已暂存</v>
+        <v>已提交</v>
       </c>
     </row>
     <row r="116">
